--- a/data/trans_camb/P1803_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1803_2016_2023-Estudios-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.3028968159262034</v>
+        <v>0.3028968159262027</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>2.530959898159133</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.617744709592932</v>
+        <v>1.61774470959293</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.813296759530538</v>
+        <v>-1.577271088081806</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2561671771796161</v>
+        <v>0.4249762564934907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2864127148947281</v>
+        <v>0.224679447206804</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.461088002994046</v>
+        <v>2.499014616321021</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.303921441103678</v>
+        <v>4.303450896766122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.127686577852923</v>
+        <v>2.944500402327811</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.08114407742324733</v>
+        <v>0.08114407742324715</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.6099878531750126</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4075317080472033</v>
+        <v>0.4075317080472029</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3824481299587548</v>
+        <v>-0.3471895597694268</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02435283171900497</v>
+        <v>0.05832693896004103</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05494951657501668</v>
+        <v>0.03746400937030273</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9202395136836263</v>
+        <v>0.928647423890709</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.313554118707504</v>
+        <v>1.318458543682892</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9589961881471235</v>
+        <v>0.8966708821739678</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>4.128068205226701</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.783179354584702</v>
+        <v>3.783179354584703</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.919634485034322</v>
+        <v>1.973919020937901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.576777474006317</v>
+        <v>2.693641058654264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.742386761521218</v>
+        <v>2.730585867288581</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.925360312386089</v>
+        <v>5.043593272068112</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.640642040651962</v>
+        <v>5.689559872101809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.908303698755537</v>
+        <v>4.934539068319605</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>0.7805092584665182</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7945591280491046</v>
+        <v>0.7945591280491048</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3885605843890307</v>
+        <v>0.3942036532434993</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4256550738993561</v>
+        <v>0.4542329001504144</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5041298167064713</v>
+        <v>0.5086630984377501</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.397316374073131</v>
+        <v>1.417856165087718</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.269237669739859</v>
+        <v>1.297460510160481</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.14403017089994</v>
+        <v>1.145005305329222</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>5.292336715708708</v>
+        <v>5.292336715708706</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>6.184088384784362</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.7585114047816</v>
+        <v>5.758511404781597</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.86798363372108</v>
+        <v>1.522355459992164</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.555490064600005</v>
+        <v>2.454398915850577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.269319787449155</v>
+        <v>3.200481948314915</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.032083168722874</v>
+        <v>8.938850452032607</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.590401756766621</v>
+        <v>9.146933865755832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.012521362064076</v>
+        <v>8.080165450744992</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.7633268881521929</v>
+        <v>0.7633268881521926</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.702618232114259</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7317699236200894</v>
+        <v>0.7317699236200891</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2177173723650667</v>
+        <v>0.1502662334557745</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2283883939925217</v>
+        <v>0.2272834541101055</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3630299805286883</v>
+        <v>0.3353981601853432</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.809289768416924</v>
+        <v>1.721637250846648</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.399993684803096</v>
+        <v>1.280707723240945</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.216906832288805</v>
+        <v>1.207442949658327</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>3.43696635534311</v>
+        <v>3.436966355343111</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>4.397704084396527</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.294698600471105</v>
+        <v>2.071979497105535</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.367757003589034</v>
+        <v>3.233529936786144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.100341521771742</v>
+        <v>3.00051216434229</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.785353467990017</v>
+        <v>4.622271627167466</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.543783074594477</v>
+        <v>5.59129347844557</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.803176039381091</v>
+        <v>4.813665928589786</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.7516213572408306</v>
+        <v>0.7516213572408309</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.7975402846144312</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4344807405691334</v>
+        <v>0.3851725869775749</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.5543606728981962</v>
+        <v>0.5243045035323791</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5572601083698352</v>
+        <v>0.5524559621984421</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.198748085620229</v>
+        <v>1.150688789556938</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.14702577049659</v>
+        <v>1.143650450817876</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.02281463671166</v>
+        <v>1.032918498297867</v>
       </c>
     </row>
     <row r="28">
